--- a/biology/Zoologie/Faisan/Faisan.xlsx
+++ b/biology/Zoologie/Faisan/Faisan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faisan est le nom vernaculaire de nombreuses espèces d'oiseaux de la sous-famille des Phasianinae même si en Europe, il désigne en premier lieu le Faisan de Colchide Phasianus colchicus. Tous ces oiseaux sont des gibiers réputés. Leur femelle s'appelle la faisane ou poule faisane.
 Plusieurs espèces utilisent le terme de faisan dans leur nom vernaculaire composé comme le Coucal faisan.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme faisan dérive du latin phasianus (emprunté au grec φασιανός / phasianós, proprement « oiseau du fleuve Phase[1] »). Le terme latin a directement donné son nom au genre Phasianus, celui de l'espèce faisan de Colchide qui vivait sur ce lit.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme faisan dérive du latin phasianus (emprunté au grec φασιανός / phasianós, proprement « oiseau du fleuve Phase »). Le terme latin a directement donné son nom au genre Phasianus, celui de l'espèce faisan de Colchide qui vivait sur ce lit.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques générales des faisans sont celles des Phasianinae, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur comportement ou leur physiologie respective.
 Les faisans partagent toutefois plusieurs caractéristiques communes à la majorité des espèces :
@@ -579,11 +595,48 @@
           <t>Noms en français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Noms de Phasianinae qui comportent le terme « faisan ». Sachant que d'autres membres de cette même sous-famille s'appellent hokki, coq, lophophore, paon, tragopan, éperonnier, argus, ithagine ou encore eulophe. 
-Noms normalisés
-Liste alphabétique des noms normalisés selon la CINFO (màj 2009) et Avibase, en regard du nom scientifique valide reconnu par la classification de référence (version 2.7, 2010) du Congrès ornithologique international.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faisan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faisan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Noms en français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms normalisés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique des noms normalisés selon la CINFO (màj 2009) et Avibase, en regard du nom scientifique valide reconnu par la classification de référence (version 2.7, 2010) du Congrès ornithologique international.
 Faisan leucomèle — Lophura leucomelanos ;
 Faisan argenté — Lophura nycthemera ;
 Faisan impérial — Lophura imperialis ;
@@ -607,41 +660,6 @@
 Faisan versicolore — Phasianus versicolor ;
 Faisan doré — Chrysolophus pictus ;
 Faisan de Lady Amherst  — Chrysolophus amherstiae.
-Noms divers
-Liste alphabétique de noms vernaculaires ou de noms vulgaires, non retenus par la CINFO, dont l’usage est attesté[Note 1]. 
-Note : Cette liste est variable selon les usages et certaines espèces ont parfois d'autres noms encore. Les classifications évoluant encore, les noms scientifiques ont peut-être un autre synonyme valide.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Faisan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faisan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Le faisan dans la culture populaire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sens dans le langage moderne
-Dans un contexte social le faisan décrit une personne convoitée par une autre, le plus souvent un être humain, avec qui l'autre individu va flirter, pratique intitulée "faisandage". De cette expression découle tout un champ "lexical" de l'animal pour hiérarchiser les prétendants selon les critères propres à la personne ; on retrouve ainsi le faisan, l'aigle mais aussi le requin-tigre ou le dauphin.
 </t>
         </is>
       </c>
@@ -667,16 +685,163 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Noms en français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms divers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique de noms vernaculaires ou de noms vulgaires, non retenus par la CINFO, dont l’usage est attesté[Note 1]. 
+Note : Cette liste est variable selon les usages et certaines espèces ont parfois d'autres noms encore. Les classifications évoluant encore, les noms scientifiques ont peut-être un autre synonyme valide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faisan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faisan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le faisan dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sens dans le langage moderne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un contexte social le faisan décrit une personne convoitée par une autre, le plus souvent un être humain, avec qui l'autre individu va flirter, pratique intitulée "faisandage". De cette expression découle tout un champ "lexical" de l'animal pour hiérarchiser les prétendants selon les critères propres à la personne ; on retrouve ainsi le faisan, l'aigle mais aussi le requin-tigre ou le dauphin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faisan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faisan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Calendrier républicain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du faisan fut attribué au 25e jour du mois de brumaire du calendrier républicain ou révolutionnaire français[2], généralement chaque 15 novembre du grégorien.
-Chasse
-En 1998 en France, les faisans étaient au deuxième rang du tableau de chasse annuel avec 5 061 054 unités, provenant à 95 % de lâcher[3].
-Élevage
-Quatorze millions de faisans, sont élevés en France chaque année[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du faisan fut attribué au 25e jour du mois de brumaire du calendrier républicain ou révolutionnaire français, généralement chaque 15 novembre du grégorien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faisan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faisan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chasse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1998 en France, les faisans étaient au deuxième rang du tableau de chasse annuel avec 5 061 054 unités, provenant à 95 % de lâcher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faisan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faisan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatorze millions de faisans, sont élevés en France chaque année.
 </t>
         </is>
       </c>
